--- a/グループ08 週報.xlsx
+++ b/グループ08 週報.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>※書き込めません．コピーして使ってください．</t>
   </si>
@@ -33,6 +33,11 @@
 今後のスケジュール：それらのプログラムを合体させる</t>
   </si>
   <si>
+    <t>進捗：必要なプログラムをすべて完成させた
+スケジュールとの差：テスト
+今後のスケジュール：合体させたプログラムのテスト、成果発表資料作成</t>
+  </si>
+  <si>
     <t>進捗：
 スケジュールとの差：
 今後のスケジュール：</t>
@@ -46,12 +51,25 @@
 今後のスケジュール：remoから照度を取得する関数を作る</t>
   </si>
   <si>
+    <t>進捗：他のプログラムのコードの組み合わせの支援
+スケジュールとの差：なし
+今後のスケジュール：その他コードの組み合わせ</t>
+  </si>
+  <si>
     <t>浅田　栞</t>
   </si>
   <si>
     <t>進捗：LINEの受信、時間計算、結果送信プログラム完成
 スケジュールとの差：なし
 今後のスケジュール：remo絡みのプログラムとくっつける</t>
+  </si>
+  <si>
+    <t>進捗：LINE関連関数たちを、
+remoを実際に操作する関数たちに
+くっつけようとしたが
+うまくいかなかった
+スケジュールとの差：若干遅れ気味
+今後のスケジュール：間に合わせる</t>
   </si>
   <si>
     <t>岸本　直樹</t>
@@ -62,12 +80,25 @@
 今後のスケジュール：スプレッドシートにログの機能を追加し、メッセージを送ってきた相手のLINEIDを取得できるプログラムを作る</t>
   </si>
   <si>
+    <t>進捗：LINEのメッセージを受け取ると、そのアカウントのIDを取得する関数を追加した
+スケジュールとの差：全体の関数の連携ができていない
+今後のスケジュール：連携と成果発表資料の作成</t>
+  </si>
+  <si>
     <t>大東　圭輔</t>
   </si>
   <si>
     <t>進捗：LINEの公式アカウントを制作し、スプレットシートに出力が上手くいってない状況
 スケジュールとの差：結果をLINEに送信するプログラムを作れていない
 今後のスケジュール：まずスプレットシートへの出力を出来るようにする</t>
+  </si>
+  <si>
+    <t>進捗
+・スプレットシートに出力のところだけできた状況
+スケジュールとの差
+・結果をLINEに送信するプログラムを作れていない
+今後のスケジュール
+・最終パワポの制作</t>
   </si>
 </sst>
 </file>
@@ -368,63 +399,63 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="75.0" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" ht="75.0" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="75.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
